--- a/employees_DB_structure.xlsx
+++ b/employees_DB_structure.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nury\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maisy\Desktop\MySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E11419-23F9-4C05-BF08-21326989C3E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6885" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6888" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="부서정보 테이블" sheetId="1" r:id="rId1"/>
@@ -278,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +352,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -663,20 +664,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -695,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -713,20 +714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -734,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -745,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -756,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -767,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -786,20 +787,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -807,7 +808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -818,7 +819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -829,7 +830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -840,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -858,20 +859,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -879,7 +880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -890,7 +891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -901,7 +902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -912,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -923,7 +924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -934,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -952,20 +953,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -973,7 +974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -984,7 +985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -995,7 +996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1024,19 +1025,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
